--- a/textbook/public/comboChart.xlsx
+++ b/textbook/public/comboChart.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,17 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
-  <si>
-    <t>Aliens</t>
-  </si>
-  <si>
-    <t>Humans</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -55,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -75,6 +64,9 @@
         <rich>
           <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
             <a:r>
               <a:t>Survey results</a:t>
             </a:r>
@@ -91,7 +83,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>Sheet!A1</f>
+              <f>'Sheet'!A1</f>
             </strRef>
           </tx>
           <spPr>
@@ -101,7 +93,7 @@
           </spPr>
           <val>
             <numRef>
-              <f>Sheet!$B$1:$G$1</f>
+              <f>'Sheet'!$B$1:$G$1</f>
             </numRef>
           </val>
         </ser>
@@ -116,7 +108,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>Sheet!A2</f>
+              <f>'Sheet'!A2</f>
             </strRef>
           </tx>
           <spPr>
@@ -134,7 +126,7 @@
           </marker>
           <val>
             <numRef>
-              <f>Sheet!$B$2:$G$2</f>
+              <f>'Sheet'!$B$2:$G$2</f>
             </numRef>
           </val>
         </ser>
@@ -153,9 +145,7 @@
               <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
               <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:pPr>
-                  <a:defRPr b="0" sz="1200">
-                    <a:latin typeface="Verdana"/>
-                  </a:defRPr>
+                  <a:defRPr/>
                 </a:pPr>
                 <a:r>
                   <a:t>Days</a:t>
@@ -181,9 +171,7 @@
               <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
               <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:pPr>
-                  <a:defRPr b="0" sz="1200">
-                    <a:latin typeface="Verdana"/>
-                  </a:defRPr>
+                  <a:defRPr/>
                 </a:pPr>
                 <a:r>
                   <a:t>Aliens</a:t>
@@ -209,9 +197,7 @@
               <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
               <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:pPr>
-                  <a:defRPr b="0" sz="1200">
-                    <a:latin typeface="Verdana"/>
-                  </a:defRPr>
+                  <a:defRPr/>
                 </a:pPr>
                 <a:r>
                   <a:t>Humans</a:t>
@@ -559,9 +545,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Aliens</t>
+        </is>
       </c>
       <c r="B1" t="n">
         <v>2</v>
@@ -582,9 +570,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Humans</t>
+        </is>
       </c>
       <c r="B2" t="n">
         <v>10</v>
@@ -606,7 +596,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>